--- a/swe milestone 1.xlsx
+++ b/swe milestone 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9072" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="298">
   <si>
     <t>Team Name</t>
   </si>
@@ -107,9 +107,6 @@
     <t>I can pay it</t>
   </si>
   <si>
-    <t>bill payment</t>
-  </si>
-  <si>
     <t>pfm</t>
   </si>
   <si>
@@ -164,12 +161,6 @@
     <t xml:space="preserve">buy things with vouchers </t>
   </si>
   <si>
-    <t>view spendings</t>
-  </si>
-  <si>
-    <t>keep track</t>
-  </si>
-  <si>
     <t xml:space="preserve">report a credit card theft </t>
   </si>
   <si>
@@ -179,9 +170,6 @@
     <t>cancel old credit card</t>
   </si>
   <si>
-    <t>it doesn’t work anymore</t>
-  </si>
-  <si>
     <t>issue a new credit card</t>
   </si>
   <si>
@@ -290,9 +278,6 @@
     <t>update balance after spending/ adding money</t>
   </si>
   <si>
-    <t>view user's request</t>
-  </si>
-  <si>
     <t>block account</t>
   </si>
   <si>
@@ -326,9 +311,6 @@
     <t>check if id is valid and authentic</t>
   </si>
   <si>
-    <t>check if age is for anyone above 21</t>
-  </si>
-  <si>
     <t xml:space="preserve">report an issue </t>
   </si>
   <si>
@@ -347,24 +329,12 @@
     <t>create family account</t>
   </si>
   <si>
-    <t xml:space="preserve">add members from family account </t>
-  </si>
-  <si>
-    <t xml:space="preserve">remove members from family account </t>
-  </si>
-  <si>
     <t xml:space="preserve">delete family account </t>
   </si>
   <si>
     <t>approve/ deny family account request</t>
   </si>
   <si>
-    <t>approve/ deny removing members request</t>
-  </si>
-  <si>
-    <t>approve/ deny adding members request</t>
-  </si>
-  <si>
     <t>approve/ deny deletion request</t>
   </si>
   <si>
@@ -398,9 +368,6 @@
     <t>handle customer inquiries</t>
   </si>
   <si>
-    <t>account management</t>
-  </si>
-  <si>
     <t>1,6</t>
   </si>
   <si>
@@ -560,9 +527,6 @@
     <t>raise funds to support my business</t>
   </si>
   <si>
-    <t>order checks</t>
-  </si>
-  <si>
     <t>pay for credit card</t>
   </si>
   <si>
@@ -584,12 +548,6 @@
     <t>upgrade/downgrade account</t>
   </si>
   <si>
-    <t>setting up disablitiy insurance</t>
-  </si>
-  <si>
-    <t>process and clear customers checks</t>
-  </si>
-  <si>
     <t>calculate and apply interests</t>
   </si>
   <si>
@@ -599,12 +557,6 @@
     <t xml:space="preserve">provide digital signature </t>
   </si>
   <si>
-    <t xml:space="preserve">manage customer account balance </t>
-  </si>
-  <si>
-    <t>view customer transaction history</t>
-  </si>
-  <si>
     <t>intiate and process customer payments</t>
   </si>
   <si>
@@ -623,9 +575,6 @@
     <t>configure and customize the system</t>
   </si>
   <si>
-    <t>generate uservactivity reports</t>
-  </si>
-  <si>
     <t>integrate with external systems</t>
   </si>
   <si>
@@ -681,6 +630,294 @@
   </si>
   <si>
     <t xml:space="preserve">create faq page </t>
+  </si>
+  <si>
+    <t>user and information management system</t>
+  </si>
+  <si>
+    <t>bill payment and donation</t>
+  </si>
+  <si>
+    <t>generate user activity reports</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>I manage my account balance</t>
+  </si>
+  <si>
+    <t>keep track of spendings</t>
+  </si>
+  <si>
+    <t>keep track of payments</t>
+  </si>
+  <si>
+    <t>I can't use it anymore</t>
+  </si>
+  <si>
+    <t>secure my account</t>
+  </si>
+  <si>
+    <t>view credit card spendings</t>
+  </si>
+  <si>
+    <t>I have money</t>
+  </si>
+  <si>
+    <t>I want to travel</t>
+  </si>
+  <si>
+    <t>I don't forget to pay</t>
+  </si>
+  <si>
+    <t>make money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check it </t>
+  </si>
+  <si>
+    <t>have money</t>
+  </si>
+  <si>
+    <t>to apply for a loan</t>
+  </si>
+  <si>
+    <t>done using the account</t>
+  </si>
+  <si>
+    <t>I pay living expenses</t>
+  </si>
+  <si>
+    <t>I can reset</t>
+  </si>
+  <si>
+    <t>search/update data</t>
+  </si>
+  <si>
+    <t>verify identity</t>
+  </si>
+  <si>
+    <t>reach the nearst ATM/ branch</t>
+  </si>
+  <si>
+    <t>it works well</t>
+  </si>
+  <si>
+    <t>to notify the user</t>
+  </si>
+  <si>
+    <t>to keep up with my activity</t>
+  </si>
+  <si>
+    <t>I can invest</t>
+  </si>
+  <si>
+    <t>to allow user to invest</t>
+  </si>
+  <si>
+    <t>the user can keep up</t>
+  </si>
+  <si>
+    <t>respond to the request</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view user's transfer request </t>
+  </si>
+  <si>
+    <t>admin can approve/deny request</t>
+  </si>
+  <si>
+    <t>stop the user from using it</t>
+  </si>
+  <si>
+    <t>manage balance</t>
+  </si>
+  <si>
+    <t>verify it is the same user</t>
+  </si>
+  <si>
+    <t>easy access to my funds</t>
+  </si>
+  <si>
+    <t>create my account</t>
+  </si>
+  <si>
+    <t>have the money</t>
+  </si>
+  <si>
+    <t>secure the account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check age </t>
+  </si>
+  <si>
+    <t>the user is above 21</t>
+  </si>
+  <si>
+    <t>get support/solution</t>
+  </si>
+  <si>
+    <t>solve frequent problems faster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educate </t>
+  </si>
+  <si>
+    <t>send money as gifts</t>
+  </si>
+  <si>
+    <t>get money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">make accessing accounts easier </t>
+  </si>
+  <si>
+    <t xml:space="preserve">add/remove members from family account </t>
+  </si>
+  <si>
+    <t>manage family account</t>
+  </si>
+  <si>
+    <t>no longer use it</t>
+  </si>
+  <si>
+    <t>approve/ deny removing/adding members request</t>
+  </si>
+  <si>
+    <t>banker/admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manage transfers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">report fraud </t>
+  </si>
+  <si>
+    <t>support my business</t>
+  </si>
+  <si>
+    <t>allow the user to create it</t>
+  </si>
+  <si>
+    <t>allow the user to manage it</t>
+  </si>
+  <si>
+    <t>allow the user to delete it</t>
+  </si>
+  <si>
+    <t>access my accounts easier</t>
+  </si>
+  <si>
+    <t>easy access to transaction history</t>
+  </si>
+  <si>
+    <t>solve their problem</t>
+  </si>
+  <si>
+    <t>manage/pay my taxes</t>
+  </si>
+  <si>
+    <t>keep track of users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detect suspiscious activity </t>
+  </si>
+  <si>
+    <t>be able to use the app</t>
+  </si>
+  <si>
+    <t>confirm it is me</t>
+  </si>
+  <si>
+    <t>get better services</t>
+  </si>
+  <si>
+    <t>send money to people</t>
+  </si>
+  <si>
+    <t>get/ update certain users data</t>
+  </si>
+  <si>
+    <t>manage accounts with huge balance</t>
+  </si>
+  <si>
+    <t>assign available employees to the customer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order cheques </t>
+  </si>
+  <si>
+    <t>to pay by cheques</t>
+  </si>
+  <si>
+    <t>I don't have debt</t>
+  </si>
+  <si>
+    <t>pay with card</t>
+  </si>
+  <si>
+    <t>I save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apply for university/travel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have money when I retire </t>
+  </si>
+  <si>
+    <t>enjoy benefits</t>
+  </si>
+  <si>
+    <t>setting up insurances</t>
+  </si>
+  <si>
+    <t>makeup for damages</t>
+  </si>
+  <si>
+    <t>process and clear customers cheques</t>
+  </si>
+  <si>
+    <t>give the customer his money</t>
+  </si>
+  <si>
+    <t>provide goals/advice for users</t>
+  </si>
+  <si>
+    <t>sign documents easier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">approve/deny the payment </t>
+  </si>
+  <si>
+    <t>allow the user to upgrade/downgrade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">match bank policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">allow customer to switch between them </t>
+  </si>
+  <si>
+    <t xml:space="preserve">view customer account balance </t>
+  </si>
+  <si>
+    <t>approve/ deny user payments</t>
+  </si>
+  <si>
+    <t>allow third party apps</t>
+  </si>
+  <si>
+    <t>avoid data loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mitigate them </t>
+  </si>
+  <si>
+    <t>ensure data integrity and accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reward loyal users </t>
   </si>
 </sst>
 </file>
@@ -900,18 +1137,18 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1137,43 +1374,43 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1187,1023 +1424,1023 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
     </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
@@ -2221,22 +2458,22 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="40" customWidth="1"/>
-    <col min="6" max="6" width="35.5546875" customWidth="1"/>
+    <col min="6" max="6" width="35.5703125" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
-    <col min="8" max="8" width="54.88671875" customWidth="1"/>
+    <col min="8" max="8" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -2256,7 +2493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -2274,27 +2511,29 @@
       </c>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" s="12"/>
+        <v>55</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -2313,12 +2552,14 @@
       <c r="F4" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="12"/>
+      <c r="G4" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H4" s="13"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B5" s="10">
         <v>1</v>
@@ -2335,12 +2576,14 @@
       <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11">
         <v>1</v>
@@ -2352,15 +2595,19 @@
         <v>22</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
+        <v>157</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H6" s="11"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -2372,17 +2619,19 @@
         <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -2394,39 +2643,43 @@
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="12"/>
+        <v>30</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H8" s="11"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C9" s="11">
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="12"/>
+      <c r="G9" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="11">
         <v>6</v>
@@ -2435,40 +2688,44 @@
         <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11">
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G11" s="12"/>
+      <c r="G11" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H11" s="11"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B12" s="11">
         <v>8</v>
@@ -2477,40 +2734,44 @@
         <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="12"/>
+      <c r="G12" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H12" s="11"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="11">
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E13" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B14" s="11">
         <v>10</v>
@@ -2519,120 +2780,132 @@
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="12"/>
+      <c r="G14" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H14" s="11"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11">
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>46</v>
+        <v>211</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="12"/>
+        <v>207</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H15" s="11"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11">
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="12"/>
+        <v>46</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H16" s="11"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11">
         <v>15</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="12"/>
+        <v>209</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11">
         <v>16</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="12"/>
+        <v>49</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
         <v>17</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="12"/>
+        <v>52</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="11">
         <v>16</v>
@@ -2641,542 +2914,660 @@
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="12"/>
+        <v>53</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H20" s="11"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11">
         <v>19</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11">
         <v>20</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
+        <v>57</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H22" s="11"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11">
         <v>21</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="12"/>
+        <v>58</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H23" s="11"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11">
         <v>22</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H24" s="11"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11">
         <v>23</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11">
         <v>24</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
+        <v>61</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H26" s="11"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11">
         <v>25</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H27" s="11"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11">
         <v>26</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
+        <v>63</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H28" s="11"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11">
         <v>27</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="12"/>
+        <v>64</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11">
         <v>28</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="12"/>
+        <v>65</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H30" s="11"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11">
         <v>29</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
+        <v>66</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H31" s="11"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11">
         <v>30</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="12"/>
+        <v>67</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H32" s="11"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11">
         <v>31</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11">
         <v>32</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H34" s="11"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11">
         <v>33</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="12"/>
+        <v>72</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H35" s="11"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11">
         <v>34</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="12"/>
+        <v>74</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H36" s="11"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11">
         <v>35</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11">
         <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H38" s="11"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="11">
         <v>37</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="12"/>
+        <v>77</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H39" s="11"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11">
         <v>38</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="12"/>
+        <v>78</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H40" s="11"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11">
         <v>39</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="12"/>
+        <v>80</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="11">
         <v>40</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H42" s="11"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11">
         <v>41</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F43" s="11"/>
-      <c r="G43" s="12"/>
+        <v>83</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H43" s="11"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11">
         <v>42</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="12"/>
+        <v>232</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H44" s="11"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11">
         <v>43</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="12"/>
+        <v>199</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B46" s="11"/>
       <c r="C46" s="11">
         <v>44</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H46" s="11"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11">
         <v>45</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="12"/>
+        <v>85</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H47" s="11"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11">
         <v>46</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>217</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="12"/>
+        <v>200</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H48" s="11"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11">
         <v>47</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="12"/>
+        <v>86</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B50" s="11">
         <v>47</v>
@@ -3185,18 +3576,22 @@
         <v>48</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="12"/>
+        <v>87</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H50" s="11"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B51" s="11">
         <v>48</v>
@@ -3205,18 +3600,22 @@
         <v>49</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="12"/>
+        <v>90</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H51" s="11"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B52" s="11">
         <v>47</v>
@@ -3225,18 +3624,22 @@
         <v>50</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="12"/>
+        <v>89</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H52" s="11"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B53" s="11">
         <v>48</v>
@@ -3245,18 +3648,22 @@
         <v>51</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="12"/>
+        <v>91</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B54" s="11">
         <v>48</v>
@@ -3265,18 +3672,22 @@
         <v>52</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="12"/>
+        <v>92</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H54" s="11"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B55" s="11">
         <v>48</v>
@@ -3285,36 +3696,44 @@
         <v>53</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="12"/>
+        <v>93</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H55" s="11"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11">
         <v>54</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="12"/>
+        <v>88</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H56" s="11"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B57" s="11">
         <v>48</v>
@@ -3323,18 +3742,22 @@
         <v>55</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B58" s="11">
         <v>48</v>
@@ -3343,144 +3766,176 @@
         <v>56</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="12"/>
+        <v>241</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H58" s="11"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11">
         <v>57</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H59" s="11"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11">
         <v>58</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="12"/>
+        <v>201</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H60" s="11"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11">
         <v>59</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="12"/>
+        <v>96</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H61" s="11"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11">
         <v>60</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="F62" s="11"/>
-      <c r="G62" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H62" s="11"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11">
         <v>61</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11">
         <v>62</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="12"/>
+        <v>99</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H64" s="11"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11">
         <v>63</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H65" s="11"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B66" s="11">
         <v>63</v>
@@ -3489,18 +3944,22 @@
         <v>64</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="12"/>
+        <v>249</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H66" s="11"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B67" s="11">
         <v>63</v>
@@ -3509,18 +3968,18 @@
         <v>65</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>108</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E67" s="19"/>
       <c r="F67" s="11"/>
-      <c r="G67" s="12"/>
+      <c r="G67" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H67" s="11"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B68" s="11">
         <v>63</v>
@@ -3529,18 +3988,22 @@
         <v>66</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H68" s="11"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B69" s="11">
         <v>63</v>
@@ -3549,18 +4012,22 @@
         <v>67</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H69" s="11"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B70" s="11">
         <v>63</v>
@@ -3569,18 +4036,22 @@
         <v>68</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="12"/>
+        <v>252</v>
+      </c>
+      <c r="F70" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H70" s="11"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B71" s="11">
         <v>63</v>
@@ -3589,18 +4060,18 @@
         <v>69</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="19" t="s">
-        <v>112</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="E71" s="19"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="12"/>
+      <c r="G71" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H71" s="11"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B72" s="11">
         <v>63</v>
@@ -3609,110 +4080,132 @@
         <v>70</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="12"/>
+        <v>103</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H72" s="11"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11">
         <v>71</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="12"/>
+        <v>104</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H73" s="11"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="11">
         <v>72</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>116</v>
-      </c>
-      <c r="G74" s="12"/>
+        <v>106</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H74" s="11"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11">
         <v>73</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="12"/>
+        <v>107</v>
+      </c>
+      <c r="F75" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11">
         <v>74</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="F76" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H76" s="11"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11">
         <v>75</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="12"/>
+        <v>109</v>
+      </c>
+      <c r="F77" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H77" s="11"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B78" s="11">
         <v>20</v>
@@ -3721,18 +4214,22 @@
         <v>76</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H78" s="11"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B79" s="11">
         <v>20</v>
@@ -3741,18 +4238,22 @@
         <v>77</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H79" s="11"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B80" s="11">
         <v>20</v>
@@ -3761,51 +4262,67 @@
         <v>78</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="12"/>
+        <v>112</v>
+      </c>
+      <c r="F80" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H80" s="11"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11">
         <v>79</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H81" s="11"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11">
         <v>80</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="12"/>
+        <v>118</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11">
         <v>81</v>
@@ -3814,68 +4331,86 @@
         <v>22</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="F83" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H83" s="11"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="11"/>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11">
         <v>82</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="G84" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H84" s="11"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="11"/>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B85" s="11"/>
       <c r="C85" s="11">
         <v>83</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="G85" s="12"/>
+        <v>123</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H85" s="11"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11">
         <v>84</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>151</v>
-      </c>
-      <c r="G86" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H86" s="11"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B87" s="11">
         <v>84</v>
       </c>
@@ -3883,83 +4418,111 @@
         <v>85</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11"/>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11">
         <v>86</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="12"/>
+        <v>142</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H88" s="11"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11"/>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11">
         <v>87</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="12"/>
+        <v>149</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H89" s="11"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11">
         <v>88</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>159</v>
-      </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="12"/>
+        <v>148</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11">
         <v>89</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="G91" s="12"/>
+        <v>147</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H91" s="11"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11">
         <v>90</v>
@@ -3968,214 +4531,284 @@
         <v>22</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="G92" s="12"/>
+        <v>151</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11"/>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11">
         <v>91</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="12"/>
+        <v>152</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11"/>
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11">
         <v>92</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="G94" s="12"/>
+        <v>154</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H94" s="11"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11">
         <v>93</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>167</v>
-      </c>
-      <c r="G95" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11"/>
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11">
         <v>94</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="12"/>
+        <v>158</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H96" s="11"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11"/>
+    <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11">
         <v>95</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="12"/>
+        <v>159</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11"/>
+    <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11">
         <v>96</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="F98" s="11"/>
-      <c r="G98" s="12"/>
+        <v>160</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H98" s="11"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
+    <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11">
         <v>97</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="12"/>
+        <v>162</v>
+      </c>
+      <c r="F99" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H99" s="11"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
+    <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11">
         <v>98</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="12"/>
+        <v>163</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H100" s="11"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="11"/>
+    <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11">
         <v>99</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="12"/>
+        <v>164</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H101" s="11"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11"/>
+    <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="11" t="s">
+        <v>203</v>
+      </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11">
         <v>100</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="G102" s="12"/>
+        <v>166</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H102" s="11"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
+    <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11">
         <v>101</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="12"/>
+        <v>273</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H103" s="11"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="11"/>
+    <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="11" t="s">
+        <v>198</v>
+      </c>
       <c r="B104" s="11"/>
       <c r="C104" s="11">
         <v>102</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="12"/>
+        <v>167</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H104" s="11"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="11"/>
+    <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11">
         <v>103</v>
@@ -4184,350 +4817,524 @@
         <v>22</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="12"/>
+        <v>168</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H105" s="11"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11"/>
+    <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="11" t="s">
+        <v>198</v>
+      </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11">
         <v>104</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="F106" s="11"/>
-      <c r="G106" s="12"/>
+        <v>169</v>
+      </c>
+      <c r="F106" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H106" s="11"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
+    <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11">
         <v>105</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F107" s="11"/>
-      <c r="G107" s="12"/>
+        <v>170</v>
+      </c>
+      <c r="F107" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H107" s="11"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
+    <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11">
         <v>106</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F108" s="11"/>
-      <c r="G108" s="12"/>
+        <v>171</v>
+      </c>
+      <c r="F108" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H108" s="11"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
+    <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11">
         <v>107</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F109" s="11"/>
-      <c r="G109" s="12"/>
+        <v>172</v>
+      </c>
+      <c r="F109" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H109" s="11"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11"/>
+    <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11">
         <v>108</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F110" s="11"/>
-      <c r="G110" s="12"/>
+        <v>173</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H110" s="11"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
+    <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11">
         <v>109</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F111" s="11"/>
-      <c r="G111" s="12"/>
+        <v>281</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H111" s="11"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
+    <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11">
         <v>110</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F112" s="11"/>
-      <c r="G112" s="12"/>
+        <v>283</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H112" s="11"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11"/>
+    <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11">
         <v>111</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="F113" s="11"/>
-      <c r="G113" s="12"/>
+        <v>174</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H113" s="11"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="11"/>
+    <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B114" s="11"/>
       <c r="C114" s="11">
         <v>112</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="F114" s="11"/>
-      <c r="G114" s="12"/>
+        <v>175</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H114" s="11"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="11"/>
+    <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11">
         <v>113</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="F115" s="11"/>
-      <c r="G115" s="12"/>
+        <v>176</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H115" s="11"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="11"/>
+    <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>202</v>
+      </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11">
         <v>114</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="12"/>
+        <v>291</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H116" s="11"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="11"/>
+    <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B117" s="11"/>
       <c r="C117" s="11">
         <v>115</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>192</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E117" s="11"/>
       <c r="F117" s="11"/>
-      <c r="G117" s="12"/>
+      <c r="G117" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H117" s="11"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="11"/>
+    <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11">
         <v>116</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="F118" s="11"/>
-      <c r="G118" s="12"/>
+        <v>177</v>
+      </c>
+      <c r="F118" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H118" s="11"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="11"/>
+    <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11">
         <v>117</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="F119" s="11"/>
-      <c r="G119" s="12"/>
+        <v>178</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>205</v>
+      </c>
       <c r="H119" s="11"/>
     </row>
-    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C120" s="26">
+    <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C120" s="23">
         <v>118</v>
       </c>
-      <c r="D120" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E120" s="26" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="26">
+      <c r="D120" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E120" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C121" s="23">
         <v>119</v>
       </c>
-      <c r="D121" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E121" s="26" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C122" s="26">
+      <c r="D121" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E121" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C122" s="23">
         <v>120</v>
       </c>
-      <c r="D122" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="E122" s="26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C123" s="26">
+      <c r="D122" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E122" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C123" s="23">
         <v>121</v>
       </c>
-      <c r="D123" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E123" s="26" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C124" s="26">
+      <c r="D123" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E123" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" s="23">
         <v>122</v>
       </c>
-      <c r="D124" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E124" s="26" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C125" s="26">
+      <c r="D124" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E124" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>255</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="23">
         <v>123</v>
       </c>
-      <c r="D125" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E125" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C126" s="26">
+      <c r="D125" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E125" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="23">
         <v>124</v>
       </c>
-      <c r="D126" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E126" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C127" s="26">
+      <c r="D126" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E126" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" s="23">
         <v>125</v>
       </c>
-      <c r="D127" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E127" s="26" t="s">
+      <c r="D127" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="23" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C128" s="26">
+      <c r="C128" s="23">
         <v>126</v>
       </c>
-      <c r="D128" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E128" s="26" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="129" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C129" s="26">
+      <c r="D128" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F128" t="s">
+        <v>296</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="C129" s="23">
         <v>127</v>
       </c>
-      <c r="D129" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="E129" s="26" t="s">
-        <v>204</v>
+      <c r="D129" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E129" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H5"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G94 G96:G119">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:G129">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="D1:D119">
@@ -4550,17 +5357,17 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="93.33203125" customWidth="1"/>
-    <col min="4" max="4" width="118.5546875" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="51.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="93.28515625" customWidth="1"/>
+    <col min="4" max="4" width="118.5703125" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
         <v>8</v>
       </c>
@@ -4600,7 +5407,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -4636,15 +5443,15 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
@@ -4670,15 +5477,15 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
@@ -4704,18 +5511,18 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="11"/>
@@ -4740,18 +5547,18 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="11"/>
@@ -4776,15 +5583,15 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -4810,18 +5617,18 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="11"/>
@@ -4846,18 +5653,18 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="11"/>
@@ -4882,18 +5689,18 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="11"/>
@@ -4918,15 +5725,15 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="12"/>
@@ -4952,15 +5759,15 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -4986,15 +5793,15 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -5020,15 +5827,15 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -5054,15 +5861,15 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -5088,7 +5895,7 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -5116,7 +5923,7 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -5144,7 +5951,7 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -5172,7 +5979,7 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -5200,7 +6007,7 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -5228,7 +6035,7 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -5256,7 +6063,7 @@
       <c r="Y21" s="1"/>
       <c r="Z21" s="1"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -5284,7 +6091,7 @@
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
     </row>
-    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -5312,7 +6119,7 @@
       <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -5340,7 +6147,7 @@
       <c r="Y24" s="1"/>
       <c r="Z24" s="1"/>
     </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -5368,7 +6175,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -5396,7 +6203,7 @@
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -5424,7 +6231,7 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -5452,7 +6259,7 @@
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
     </row>
-    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -5480,7 +6287,7 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -5508,7 +6315,7 @@
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -5536,7 +6343,7 @@
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -5564,7 +6371,7 @@
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -5592,7 +6399,7 @@
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
     </row>
-    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -5620,7 +6427,7 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -5648,7 +6455,7 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -5676,7 +6483,7 @@
       <c r="Y36" s="1"/>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -5704,7 +6511,7 @@
       <c r="Y37" s="1"/>
       <c r="Z37" s="1"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -5732,7 +6539,7 @@
       <c r="Y38" s="1"/>
       <c r="Z38" s="1"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -5760,7 +6567,7 @@
       <c r="Y39" s="1"/>
       <c r="Z39" s="1"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -5788,7 +6595,7 @@
       <c r="Y40" s="1"/>
       <c r="Z40" s="1"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -5816,7 +6623,7 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -5844,7 +6651,7 @@
       <c r="Y42" s="1"/>
       <c r="Z42" s="1"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -5872,7 +6679,7 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
     </row>
-    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -5900,7 +6707,7 @@
       <c r="Y44" s="1"/>
       <c r="Z44" s="1"/>
     </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5928,7 +6735,7 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
     </row>
-    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -5956,7 +6763,7 @@
       <c r="Y46" s="1"/>
       <c r="Z46" s="1"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -5984,7 +6791,7 @@
       <c r="Y47" s="1"/>
       <c r="Z47" s="1"/>
     </row>
-    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -6012,7 +6819,7 @@
       <c r="Y48" s="1"/>
       <c r="Z48" s="1"/>
     </row>
-    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -6040,7 +6847,7 @@
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
     </row>
-    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -6068,7 +6875,7 @@
       <c r="Y50" s="1"/>
       <c r="Z50" s="1"/>
     </row>
-    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -6096,7 +6903,7 @@
       <c r="Y51" s="1"/>
       <c r="Z51" s="1"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -6124,7 +6931,7 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -6152,7 +6959,7 @@
       <c r="Y53" s="1"/>
       <c r="Z53" s="1"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -6180,7 +6987,7 @@
       <c r="Y54" s="1"/>
       <c r="Z54" s="1"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -6208,7 +7015,7 @@
       <c r="Y55" s="1"/>
       <c r="Z55" s="1"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -6236,7 +7043,7 @@
       <c r="Y56" s="1"/>
       <c r="Z56" s="1"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -6264,7 +7071,7 @@
       <c r="Y57" s="1"/>
       <c r="Z57" s="1"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -6292,7 +7099,7 @@
       <c r="Y58" s="1"/>
       <c r="Z58" s="1"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -6320,7 +7127,7 @@
       <c r="Y59" s="1"/>
       <c r="Z59" s="1"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -6348,7 +7155,7 @@
       <c r="Y60" s="1"/>
       <c r="Z60" s="1"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -6376,7 +7183,7 @@
       <c r="Y61" s="1"/>
       <c r="Z61" s="1"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -6404,7 +7211,7 @@
       <c r="Y62" s="1"/>
       <c r="Z62" s="1"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -6432,7 +7239,7 @@
       <c r="Y63" s="1"/>
       <c r="Z63" s="1"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -6460,7 +7267,7 @@
       <c r="Y64" s="1"/>
       <c r="Z64" s="1"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -6488,7 +7295,7 @@
       <c r="Y65" s="1"/>
       <c r="Z65" s="1"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -6516,7 +7323,7 @@
       <c r="Y66" s="1"/>
       <c r="Z66" s="1"/>
     </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -6544,7 +7351,7 @@
       <c r="Y67" s="1"/>
       <c r="Z67" s="1"/>
     </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -6572,7 +7379,7 @@
       <c r="Y68" s="1"/>
       <c r="Z68" s="1"/>
     </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -6600,7 +7407,7 @@
       <c r="Y69" s="1"/>
       <c r="Z69" s="1"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -6628,7 +7435,7 @@
       <c r="Y70" s="1"/>
       <c r="Z70" s="1"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -6656,7 +7463,7 @@
       <c r="Y71" s="1"/>
       <c r="Z71" s="1"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -6684,7 +7491,7 @@
       <c r="Y72" s="1"/>
       <c r="Z72" s="1"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -6712,7 +7519,7 @@
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -6740,7 +7547,7 @@
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -6768,7 +7575,7 @@
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -6796,7 +7603,7 @@
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -6824,7 +7631,7 @@
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -6852,7 +7659,7 @@
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -6880,7 +7687,7 @@
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -6908,7 +7715,7 @@
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -6936,7 +7743,7 @@
       <c r="Y81" s="1"/>
       <c r="Z81" s="1"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -6964,7 +7771,7 @@
       <c r="Y82" s="1"/>
       <c r="Z82" s="1"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -6992,7 +7799,7 @@
       <c r="Y83" s="1"/>
       <c r="Z83" s="1"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -7020,7 +7827,7 @@
       <c r="Y84" s="1"/>
       <c r="Z84" s="1"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -7048,7 +7855,7 @@
       <c r="Y85" s="1"/>
       <c r="Z85" s="1"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -7076,7 +7883,7 @@
       <c r="Y86" s="1"/>
       <c r="Z86" s="1"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -7104,7 +7911,7 @@
       <c r="Y87" s="1"/>
       <c r="Z87" s="1"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -7132,7 +7939,7 @@
       <c r="Y88" s="1"/>
       <c r="Z88" s="1"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -7160,7 +7967,7 @@
       <c r="Y89" s="1"/>
       <c r="Z89" s="1"/>
     </row>
-    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -7188,7 +7995,7 @@
       <c r="Y90" s="1"/>
       <c r="Z90" s="1"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -7216,7 +8023,7 @@
       <c r="Y91" s="1"/>
       <c r="Z91" s="1"/>
     </row>
-    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -7244,7 +8051,7 @@
       <c r="Y92" s="1"/>
       <c r="Z92" s="1"/>
     </row>
-    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -7272,7 +8079,7 @@
       <c r="Y93" s="1"/>
       <c r="Z93" s="1"/>
     </row>
-    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -7300,7 +8107,7 @@
       <c r="Y94" s="1"/>
       <c r="Z94" s="1"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -7328,7 +8135,7 @@
       <c r="Y95" s="1"/>
       <c r="Z95" s="1"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -7356,7 +8163,7 @@
       <c r="Y96" s="1"/>
       <c r="Z96" s="1"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -7384,7 +8191,7 @@
       <c r="Y97" s="1"/>
       <c r="Z97" s="1"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -7412,7 +8219,7 @@
       <c r="Y98" s="1"/>
       <c r="Z98" s="1"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -7440,7 +8247,7 @@
       <c r="Y99" s="1"/>
       <c r="Z99" s="1"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -7468,7 +8275,7 @@
       <c r="Y100" s="1"/>
       <c r="Z100" s="1"/>
     </row>
-    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -7496,7 +8303,7 @@
       <c r="Y101" s="1"/>
       <c r="Z101" s="1"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -7524,7 +8331,7 @@
       <c r="Y102" s="1"/>
       <c r="Z102" s="1"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -7552,7 +8359,7 @@
       <c r="Y103" s="1"/>
       <c r="Z103" s="1"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -7580,7 +8387,7 @@
       <c r="Y104" s="1"/>
       <c r="Z104" s="1"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -7608,7 +8415,7 @@
       <c r="Y105" s="1"/>
       <c r="Z105" s="1"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -7636,7 +8443,7 @@
       <c r="Y106" s="1"/>
       <c r="Z106" s="1"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -7664,7 +8471,7 @@
       <c r="Y107" s="1"/>
       <c r="Z107" s="1"/>
     </row>
-    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -7692,7 +8499,7 @@
       <c r="Y108" s="1"/>
       <c r="Z108" s="1"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -7720,7 +8527,7 @@
       <c r="Y109" s="1"/>
       <c r="Z109" s="1"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -7748,7 +8555,7 @@
       <c r="Y110" s="1"/>
       <c r="Z110" s="1"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -7776,7 +8583,7 @@
       <c r="Y111" s="1"/>
       <c r="Z111" s="1"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -7804,7 +8611,7 @@
       <c r="Y112" s="1"/>
       <c r="Z112" s="1"/>
     </row>
-    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -7832,7 +8639,7 @@
       <c r="Y113" s="1"/>
       <c r="Z113" s="1"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
@@ -7860,7 +8667,7 @@
       <c r="Y114" s="1"/>
       <c r="Z114" s="1"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -7888,7 +8695,7 @@
       <c r="Y115" s="1"/>
       <c r="Z115" s="1"/>
     </row>
-    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -7916,7 +8723,7 @@
       <c r="Y116" s="1"/>
       <c r="Z116" s="1"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -7944,7 +8751,7 @@
       <c r="Y117" s="1"/>
       <c r="Z117" s="1"/>
     </row>
-    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -7972,7 +8779,7 @@
       <c r="Y118" s="1"/>
       <c r="Z118" s="1"/>
     </row>
-    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
@@ -8000,7 +8807,7 @@
       <c r="Y119" s="1"/>
       <c r="Z119" s="1"/>
     </row>
-    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -8028,7 +8835,7 @@
       <c r="Y120" s="1"/>
       <c r="Z120" s="1"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -8056,7 +8863,7 @@
       <c r="Y121" s="1"/>
       <c r="Z121" s="1"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -8084,7 +8891,7 @@
       <c r="Y122" s="1"/>
       <c r="Z122" s="1"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -8112,7 +8919,7 @@
       <c r="Y123" s="1"/>
       <c r="Z123" s="1"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -8140,7 +8947,7 @@
       <c r="Y124" s="1"/>
       <c r="Z124" s="1"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -8168,7 +8975,7 @@
       <c r="Y125" s="1"/>
       <c r="Z125" s="1"/>
     </row>
-    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -8196,7 +9003,7 @@
       <c r="Y126" s="1"/>
       <c r="Z126" s="1"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
@@ -8224,7 +9031,7 @@
       <c r="Y127" s="1"/>
       <c r="Z127" s="1"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -8252,7 +9059,7 @@
       <c r="Y128" s="1"/>
       <c r="Z128" s="1"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -8280,7 +9087,7 @@
       <c r="Y129" s="1"/>
       <c r="Z129" s="1"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -8308,7 +9115,7 @@
       <c r="Y130" s="1"/>
       <c r="Z130" s="1"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -8336,7 +9143,7 @@
       <c r="Y131" s="1"/>
       <c r="Z131" s="1"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -8364,7 +9171,7 @@
       <c r="Y132" s="1"/>
       <c r="Z132" s="1"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -8392,7 +9199,7 @@
       <c r="Y133" s="1"/>
       <c r="Z133" s="1"/>
     </row>
-    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -8420,7 +9227,7 @@
       <c r="Y134" s="1"/>
       <c r="Z134" s="1"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -8448,7 +9255,7 @@
       <c r="Y135" s="1"/>
       <c r="Z135" s="1"/>
     </row>
-    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -8476,7 +9283,7 @@
       <c r="Y136" s="1"/>
       <c r="Z136" s="1"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -8504,7 +9311,7 @@
       <c r="Y137" s="1"/>
       <c r="Z137" s="1"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -8532,7 +9339,7 @@
       <c r="Y138" s="1"/>
       <c r="Z138" s="1"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -8560,7 +9367,7 @@
       <c r="Y139" s="1"/>
       <c r="Z139" s="1"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -8588,7 +9395,7 @@
       <c r="Y140" s="1"/>
       <c r="Z140" s="1"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -8616,7 +9423,7 @@
       <c r="Y141" s="1"/>
       <c r="Z141" s="1"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -8644,7 +9451,7 @@
       <c r="Y142" s="1"/>
       <c r="Z142" s="1"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -8672,7 +9479,7 @@
       <c r="Y143" s="1"/>
       <c r="Z143" s="1"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -8700,7 +9507,7 @@
       <c r="Y144" s="1"/>
       <c r="Z144" s="1"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -8728,7 +9535,7 @@
       <c r="Y145" s="1"/>
       <c r="Z145" s="1"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -8756,7 +9563,7 @@
       <c r="Y146" s="1"/>
       <c r="Z146" s="1"/>
     </row>
-    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -8784,7 +9591,7 @@
       <c r="Y147" s="1"/>
       <c r="Z147" s="1"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -8812,7 +9619,7 @@
       <c r="Y148" s="1"/>
       <c r="Z148" s="1"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -8840,7 +9647,7 @@
       <c r="Y149" s="1"/>
       <c r="Z149" s="1"/>
     </row>
-    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -8868,7 +9675,7 @@
       <c r="Y150" s="1"/>
       <c r="Z150" s="1"/>
     </row>
-    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -8896,7 +9703,7 @@
       <c r="Y151" s="1"/>
       <c r="Z151" s="1"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -8924,7 +9731,7 @@
       <c r="Y152" s="1"/>
       <c r="Z152" s="1"/>
     </row>
-    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -8952,7 +9759,7 @@
       <c r="Y153" s="1"/>
       <c r="Z153" s="1"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -8980,7 +9787,7 @@
       <c r="Y154" s="1"/>
       <c r="Z154" s="1"/>
     </row>
-    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -9008,7 +9815,7 @@
       <c r="Y155" s="1"/>
       <c r="Z155" s="1"/>
     </row>
-    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -9036,7 +9843,7 @@
       <c r="Y156" s="1"/>
       <c r="Z156" s="1"/>
     </row>
-    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -9064,7 +9871,7 @@
       <c r="Y157" s="1"/>
       <c r="Z157" s="1"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -9092,7 +9899,7 @@
       <c r="Y158" s="1"/>
       <c r="Z158" s="1"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -9120,7 +9927,7 @@
       <c r="Y159" s="1"/>
       <c r="Z159" s="1"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -9148,7 +9955,7 @@
       <c r="Y160" s="1"/>
       <c r="Z160" s="1"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -9176,7 +9983,7 @@
       <c r="Y161" s="1"/>
       <c r="Z161" s="1"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -9204,7 +10011,7 @@
       <c r="Y162" s="1"/>
       <c r="Z162" s="1"/>
     </row>
-    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -9232,7 +10039,7 @@
       <c r="Y163" s="1"/>
       <c r="Z163" s="1"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -9260,7 +10067,7 @@
       <c r="Y164" s="1"/>
       <c r="Z164" s="1"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -9288,7 +10095,7 @@
       <c r="Y165" s="1"/>
       <c r="Z165" s="1"/>
     </row>
-    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -9316,7 +10123,7 @@
       <c r="Y166" s="1"/>
       <c r="Z166" s="1"/>
     </row>
-    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -9344,7 +10151,7 @@
       <c r="Y167" s="1"/>
       <c r="Z167" s="1"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -9372,7 +10179,7 @@
       <c r="Y168" s="1"/>
       <c r="Z168" s="1"/>
     </row>
-    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -9400,7 +10207,7 @@
       <c r="Y169" s="1"/>
       <c r="Z169" s="1"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -9428,7 +10235,7 @@
       <c r="Y170" s="1"/>
       <c r="Z170" s="1"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -9456,7 +10263,7 @@
       <c r="Y171" s="1"/>
       <c r="Z171" s="1"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -9484,7 +10291,7 @@
       <c r="Y172" s="1"/>
       <c r="Z172" s="1"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -9512,7 +10319,7 @@
       <c r="Y173" s="1"/>
       <c r="Z173" s="1"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -9540,7 +10347,7 @@
       <c r="Y174" s="1"/>
       <c r="Z174" s="1"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -9568,7 +10375,7 @@
       <c r="Y175" s="1"/>
       <c r="Z175" s="1"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -9596,7 +10403,7 @@
       <c r="Y176" s="1"/>
       <c r="Z176" s="1"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -9624,7 +10431,7 @@
       <c r="Y177" s="1"/>
       <c r="Z177" s="1"/>
     </row>
-    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -9652,7 +10459,7 @@
       <c r="Y178" s="1"/>
       <c r="Z178" s="1"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -9680,7 +10487,7 @@
       <c r="Y179" s="1"/>
       <c r="Z179" s="1"/>
     </row>
-    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -9708,7 +10515,7 @@
       <c r="Y180" s="1"/>
       <c r="Z180" s="1"/>
     </row>
-    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -9736,7 +10543,7 @@
       <c r="Y181" s="1"/>
       <c r="Z181" s="1"/>
     </row>
-    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -9764,7 +10571,7 @@
       <c r="Y182" s="1"/>
       <c r="Z182" s="1"/>
     </row>
-    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -9792,7 +10599,7 @@
       <c r="Y183" s="1"/>
       <c r="Z183" s="1"/>
     </row>
-    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -9820,7 +10627,7 @@
       <c r="Y184" s="1"/>
       <c r="Z184" s="1"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -9848,7 +10655,7 @@
       <c r="Y185" s="1"/>
       <c r="Z185" s="1"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -9876,7 +10683,7 @@
       <c r="Y186" s="1"/>
       <c r="Z186" s="1"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -9904,7 +10711,7 @@
       <c r="Y187" s="1"/>
       <c r="Z187" s="1"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -9932,7 +10739,7 @@
       <c r="Y188" s="1"/>
       <c r="Z188" s="1"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -9960,7 +10767,7 @@
       <c r="Y189" s="1"/>
       <c r="Z189" s="1"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -9988,7 +10795,7 @@
       <c r="Y190" s="1"/>
       <c r="Z190" s="1"/>
     </row>
-    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -10016,7 +10823,7 @@
       <c r="Y191" s="1"/>
       <c r="Z191" s="1"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -10044,7 +10851,7 @@
       <c r="Y192" s="1"/>
       <c r="Z192" s="1"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -10072,7 +10879,7 @@
       <c r="Y193" s="1"/>
       <c r="Z193" s="1"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -10100,7 +10907,7 @@
       <c r="Y194" s="1"/>
       <c r="Z194" s="1"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -10128,7 +10935,7 @@
       <c r="Y195" s="1"/>
       <c r="Z195" s="1"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -10156,7 +10963,7 @@
       <c r="Y196" s="1"/>
       <c r="Z196" s="1"/>
     </row>
-    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -10184,7 +10991,7 @@
       <c r="Y197" s="1"/>
       <c r="Z197" s="1"/>
     </row>
-    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -10212,7 +11019,7 @@
       <c r="Y198" s="1"/>
       <c r="Z198" s="1"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -10240,7 +11047,7 @@
       <c r="Y199" s="1"/>
       <c r="Z199" s="1"/>
     </row>
-    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -10268,7 +11075,7 @@
       <c r="Y200" s="1"/>
       <c r="Z200" s="1"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -10296,7 +11103,7 @@
       <c r="Y201" s="1"/>
       <c r="Z201" s="1"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -10324,7 +11131,7 @@
       <c r="Y202" s="1"/>
       <c r="Z202" s="1"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -10352,7 +11159,7 @@
       <c r="Y203" s="1"/>
       <c r="Z203" s="1"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -10380,7 +11187,7 @@
       <c r="Y204" s="1"/>
       <c r="Z204" s="1"/>
     </row>
-    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -10408,7 +11215,7 @@
       <c r="Y205" s="1"/>
       <c r="Z205" s="1"/>
     </row>
-    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -10436,7 +11243,7 @@
       <c r="Y206" s="1"/>
       <c r="Z206" s="1"/>
     </row>
-    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -10464,7 +11271,7 @@
       <c r="Y207" s="1"/>
       <c r="Z207" s="1"/>
     </row>
-    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -10492,7 +11299,7 @@
       <c r="Y208" s="1"/>
       <c r="Z208" s="1"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -10520,7 +11327,7 @@
       <c r="Y209" s="1"/>
       <c r="Z209" s="1"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -10548,7 +11355,7 @@
       <c r="Y210" s="1"/>
       <c r="Z210" s="1"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -10576,7 +11383,7 @@
       <c r="Y211" s="1"/>
       <c r="Z211" s="1"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -10604,7 +11411,7 @@
       <c r="Y212" s="1"/>
       <c r="Z212" s="1"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -10632,7 +11439,7 @@
       <c r="Y213" s="1"/>
       <c r="Z213" s="1"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -10660,7 +11467,7 @@
       <c r="Y214" s="1"/>
       <c r="Z214" s="1"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -10688,7 +11495,7 @@
       <c r="Y215" s="1"/>
       <c r="Z215" s="1"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -10716,7 +11523,7 @@
       <c r="Y216" s="1"/>
       <c r="Z216" s="1"/>
     </row>
-    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -10744,7 +11551,7 @@
       <c r="Y217" s="1"/>
       <c r="Z217" s="1"/>
     </row>
-    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -10772,7 +11579,7 @@
       <c r="Y218" s="1"/>
       <c r="Z218" s="1"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -10800,7 +11607,7 @@
       <c r="Y219" s="1"/>
       <c r="Z219" s="1"/>
     </row>
-    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -10828,786 +11635,786 @@
       <c r="Y220" s="1"/>
       <c r="Z220" s="1"/>
     </row>
-    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E11">

--- a/swe milestone 1.xlsx
+++ b/swe milestone 1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\sem 6\SE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="309">
   <si>
     <t>Team Name</t>
   </si>
@@ -98,27 +98,15 @@
     <t xml:space="preserve">view my balance </t>
   </si>
   <si>
-    <t>check if I get paid</t>
-  </si>
-  <si>
     <t>view credit card bill</t>
   </si>
   <si>
     <t>I can pay it</t>
   </si>
   <si>
-    <t>pfm</t>
-  </si>
-  <si>
     <t>donate money</t>
   </si>
   <si>
-    <t>help charities</t>
-  </si>
-  <si>
-    <t>check my savings</t>
-  </si>
-  <si>
     <t>view my savings</t>
   </si>
   <si>
@@ -128,15 +116,9 @@
     <t>load my balance with my savings</t>
   </si>
   <si>
-    <t>so that I can pay bills</t>
-  </si>
-  <si>
     <t>put my savings in certificate</t>
   </si>
   <si>
-    <t>save my money</t>
-  </si>
-  <si>
     <t>apply for a loan</t>
   </si>
   <si>
@@ -152,42 +134,24 @@
     <t xml:space="preserve">view my credit card points </t>
   </si>
   <si>
-    <t xml:space="preserve">claim vouchers </t>
-  </si>
-  <si>
     <t>exchange points with vouchers</t>
   </si>
   <si>
-    <t xml:space="preserve">buy things with vouchers </t>
-  </si>
-  <si>
     <t xml:space="preserve">report a credit card theft </t>
   </si>
   <si>
-    <t>protect my account and claim money back</t>
-  </si>
-  <si>
     <t>cancel old credit card</t>
   </si>
   <si>
     <t>issue a new credit card</t>
   </si>
   <si>
-    <t>my last one was stolen or lost</t>
-  </si>
-  <si>
     <t xml:space="preserve">categorize my spendings </t>
   </si>
   <si>
     <t xml:space="preserve">set limits to each category </t>
   </si>
   <si>
-    <t>track my spendings</t>
-  </si>
-  <si>
-    <t>limit my spendings</t>
-  </si>
-  <si>
     <t>login to my account</t>
   </si>
   <si>
@@ -344,9 +308,6 @@
     <t>check credit card theft report</t>
   </si>
   <si>
-    <t>return money to client</t>
-  </si>
-  <si>
     <t>check suspiscious spendings</t>
   </si>
   <si>
@@ -368,9 +329,6 @@
     <t>handle customer inquiries</t>
   </si>
   <si>
-    <t>1,6</t>
-  </si>
-  <si>
     <t xml:space="preserve">the abality to perform well under high demands </t>
   </si>
   <si>
@@ -389,15 +347,9 @@
     <t>view appointments in the bank</t>
   </si>
   <si>
-    <t>reserve an appointment</t>
-  </si>
-  <si>
     <t>reserve an appointment with a banker</t>
   </si>
   <si>
-    <t>skip waiting time</t>
-  </si>
-  <si>
     <t>performance</t>
   </si>
   <si>
@@ -437,18 +389,12 @@
     <t>Maintainability</t>
   </si>
   <si>
-    <t>The system code should be clear and easy to maintaiin in case of updates and error handeling</t>
-  </si>
-  <si>
     <t xml:space="preserve">it should be well writen and divided into sections </t>
   </si>
   <si>
     <t>have a dashboard</t>
   </si>
   <si>
-    <t>view system status</t>
-  </si>
-  <si>
     <t xml:space="preserve">view login history </t>
   </si>
   <si>
@@ -461,15 +407,9 @@
     <t>The software should be secure and protect customer data</t>
   </si>
   <si>
-    <t>it should have strong password system and two factor authentication</t>
-  </si>
-  <si>
     <t>check if the user humane or a robot</t>
   </si>
   <si>
-    <t>avoid hacking</t>
-  </si>
-  <si>
     <t>view most recent currencies sell and buy prices</t>
   </si>
   <si>
@@ -479,24 +419,15 @@
     <t>view list of most frequent accounts I transfer to</t>
   </si>
   <si>
-    <t>do regular transfers faster</t>
-  </si>
-  <si>
     <t>be able to provide my suggestions</t>
   </si>
   <si>
     <t>view last login exact date, time, location and device</t>
   </si>
   <si>
-    <t>to verify it is my login</t>
-  </si>
-  <si>
     <t>choose what account to be the default one</t>
   </si>
   <si>
-    <t>access the main account faster</t>
-  </si>
-  <si>
     <t>transfer money to my other accounts</t>
   </si>
   <si>
@@ -524,9 +455,6 @@
     <t>launch crowdfunding campaigns</t>
   </si>
   <si>
-    <t>raise funds to support my business</t>
-  </si>
-  <si>
     <t>pay for credit card</t>
   </si>
   <si>
@@ -593,15 +521,9 @@
     <t>portability</t>
   </si>
   <si>
-    <t>The system should be portable, allowing it to be deployed on different hardware and software platforms.</t>
-  </si>
-  <si>
     <t>Interoperability</t>
   </si>
   <si>
-    <t>The system should be compatible with other banking systems and external applications.</t>
-  </si>
-  <si>
     <t>Compatibility</t>
   </si>
   <si>
@@ -611,24 +533,12 @@
     <t>Extensibility</t>
   </si>
   <si>
-    <t>The system should be extensible, allowing for the addition of new features and functionality in the future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditability: </t>
-  </si>
-  <si>
-    <t>The system should have an audit trail that tracks all user activity and transactions.</t>
-  </si>
-  <si>
     <t>credit card and loans</t>
   </si>
   <si>
     <t>send a 'block account' request to admin</t>
   </si>
   <si>
-    <t>manage user session history</t>
-  </si>
-  <si>
     <t xml:space="preserve">create faq page </t>
   </si>
   <si>
@@ -647,18 +557,9 @@
     <t>I manage my account balance</t>
   </si>
   <si>
-    <t>keep track of spendings</t>
-  </si>
-  <si>
-    <t>keep track of payments</t>
-  </si>
-  <si>
     <t>I can't use it anymore</t>
   </si>
   <si>
-    <t>secure my account</t>
-  </si>
-  <si>
     <t>view credit card spendings</t>
   </si>
   <si>
@@ -671,253 +572,385 @@
     <t>I don't forget to pay</t>
   </si>
   <si>
-    <t>make money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check it </t>
-  </si>
-  <si>
-    <t>have money</t>
-  </si>
-  <si>
-    <t>to apply for a loan</t>
-  </si>
-  <si>
-    <t>done using the account</t>
-  </si>
-  <si>
     <t>I pay living expenses</t>
   </si>
   <si>
-    <t>I can reset</t>
-  </si>
-  <si>
-    <t>search/update data</t>
-  </si>
-  <si>
-    <t>verify identity</t>
-  </si>
-  <si>
-    <t>reach the nearst ATM/ branch</t>
-  </si>
-  <si>
-    <t>it works well</t>
-  </si>
-  <si>
-    <t>to notify the user</t>
-  </si>
-  <si>
-    <t>to keep up with my activity</t>
-  </si>
-  <si>
-    <t>I can invest</t>
-  </si>
-  <si>
-    <t>to allow user to invest</t>
-  </si>
-  <si>
-    <t>the user can keep up</t>
-  </si>
-  <si>
-    <t>respond to the request</t>
-  </si>
-  <si>
     <t xml:space="preserve">view user's transfer request </t>
   </si>
   <si>
     <t>admin can approve/deny request</t>
   </si>
   <si>
-    <t>stop the user from using it</t>
-  </si>
-  <si>
-    <t>manage balance</t>
-  </si>
-  <si>
-    <t>verify it is the same user</t>
-  </si>
-  <si>
-    <t>easy access to my funds</t>
-  </si>
-  <si>
-    <t>create my account</t>
-  </si>
-  <si>
-    <t>have the money</t>
-  </si>
-  <si>
-    <t>secure the account</t>
-  </si>
-  <si>
     <t xml:space="preserve">check age </t>
   </si>
   <si>
-    <t>the user is above 21</t>
-  </si>
-  <si>
-    <t>get support/solution</t>
-  </si>
-  <si>
-    <t>solve frequent problems faster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">educate </t>
-  </si>
-  <si>
-    <t>send money as gifts</t>
-  </si>
-  <si>
-    <t>get money</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make accessing accounts easier </t>
-  </si>
-  <si>
     <t xml:space="preserve">add/remove members from family account </t>
   </si>
   <si>
-    <t>manage family account</t>
-  </si>
-  <si>
-    <t>no longer use it</t>
-  </si>
-  <si>
     <t>approve/ deny removing/adding members request</t>
   </si>
   <si>
     <t>banker/admin</t>
   </si>
   <si>
-    <t xml:space="preserve">manage transfers </t>
-  </si>
-  <si>
-    <t xml:space="preserve">report fraud </t>
-  </si>
-  <si>
-    <t>support my business</t>
-  </si>
-  <si>
-    <t>allow the user to create it</t>
-  </si>
-  <si>
-    <t>allow the user to manage it</t>
-  </si>
-  <si>
-    <t>allow the user to delete it</t>
-  </si>
-  <si>
-    <t>access my accounts easier</t>
-  </si>
-  <si>
-    <t>easy access to transaction history</t>
-  </si>
-  <si>
-    <t>solve their problem</t>
-  </si>
-  <si>
-    <t>manage/pay my taxes</t>
-  </si>
-  <si>
-    <t>keep track of users</t>
-  </si>
-  <si>
-    <t xml:space="preserve">detect suspiscious activity </t>
-  </si>
-  <si>
     <t>be able to use the app</t>
   </si>
   <si>
-    <t>confirm it is me</t>
-  </si>
-  <si>
-    <t>get better services</t>
-  </si>
-  <si>
-    <t>send money to people</t>
-  </si>
-  <si>
-    <t>get/ update certain users data</t>
-  </si>
-  <si>
-    <t>manage accounts with huge balance</t>
-  </si>
-  <si>
-    <t>assign available employees to the customer</t>
-  </si>
-  <si>
     <t xml:space="preserve">order cheques </t>
   </si>
   <si>
-    <t>to pay by cheques</t>
-  </si>
-  <si>
     <t>I don't have debt</t>
   </si>
   <si>
-    <t>pay with card</t>
-  </si>
-  <si>
     <t>I save</t>
   </si>
   <si>
-    <t xml:space="preserve">apply for university/travel </t>
-  </si>
-  <si>
-    <t xml:space="preserve">have money when I retire </t>
-  </si>
-  <si>
-    <t>enjoy benefits</t>
-  </si>
-  <si>
     <t>setting up insurances</t>
   </si>
   <si>
-    <t>makeup for damages</t>
-  </si>
-  <si>
     <t>process and clear customers cheques</t>
   </si>
   <si>
-    <t>give the customer his money</t>
-  </si>
-  <si>
-    <t>provide goals/advice for users</t>
-  </si>
-  <si>
-    <t>sign documents easier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approve/deny the payment </t>
-  </si>
-  <si>
-    <t>allow the user to upgrade/downgrade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">match bank policy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">allow customer to switch between them </t>
-  </si>
-  <si>
     <t xml:space="preserve">view customer account balance </t>
   </si>
   <si>
-    <t>approve/ deny user payments</t>
-  </si>
-  <si>
-    <t>allow third party apps</t>
-  </si>
-  <si>
-    <t>avoid data loss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mitigate them </t>
-  </si>
-  <si>
-    <t>ensure data integrity and accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reward loyal users </t>
+    <t>I check if I get paid</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I help charities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account details are like IBAN </t>
+  </si>
+  <si>
+    <t>personal information are like name and address</t>
+  </si>
+  <si>
+    <t>manage user session time</t>
+  </si>
+  <si>
+    <t>loyal users are rewarded</t>
+  </si>
+  <si>
+    <t>I ensure data integrity and accuracy</t>
+  </si>
+  <si>
+    <t>we avoid data loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can mitigate them </t>
+  </si>
+  <si>
+    <t>I allow third party apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I report fraud </t>
+  </si>
+  <si>
+    <t>I check my savings</t>
+  </si>
+  <si>
+    <t>I can pay with them</t>
+  </si>
+  <si>
+    <t>I save my money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I claim vouchers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I buy things with vouchers </t>
+  </si>
+  <si>
+    <t>I keep track of spendings</t>
+  </si>
+  <si>
+    <t>I protect my account and claim money back</t>
+  </si>
+  <si>
+    <t>I have a new one</t>
+  </si>
+  <si>
+    <t>I track my spendings</t>
+  </si>
+  <si>
+    <t>I can limit my spendings</t>
+  </si>
+  <si>
+    <t>I secure my account</t>
+  </si>
+  <si>
+    <t>I keep track of payments</t>
+  </si>
+  <si>
+    <t>I make money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I check it </t>
+  </si>
+  <si>
+    <t>I can apply for a loan</t>
+  </si>
+  <si>
+    <t>I can close the app safely</t>
+  </si>
+  <si>
+    <t>I pay for entertainment</t>
+  </si>
+  <si>
+    <t>I don't get arrested</t>
+  </si>
+  <si>
+    <t>I can reset it</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I check it </t>
+  </si>
+  <si>
+    <t>I can search/update data</t>
+  </si>
+  <si>
+    <t>I can ensure it performs well</t>
+  </si>
+  <si>
+    <t>I keep up with my activity</t>
+  </si>
+  <si>
+    <t>I notify the user</t>
+  </si>
+  <si>
+    <t>I allow user to invest</t>
+  </si>
+  <si>
+    <t>I don't spend the money and save it</t>
+  </si>
+  <si>
+    <t>the user can keep see changes</t>
+  </si>
+  <si>
+    <t>I respond to the request</t>
+  </si>
+  <si>
+    <t>I stop the user from using it</t>
+  </si>
+  <si>
+    <t>I manage user's balance</t>
+  </si>
+  <si>
+    <t>I verify it is the same user</t>
+  </si>
+  <si>
+    <t>I get easy access to my funds</t>
+  </si>
+  <si>
+    <t>I verify user's identity</t>
+  </si>
+  <si>
+    <t>I create my account</t>
+  </si>
+  <si>
+    <t>I have the money</t>
+  </si>
+  <si>
+    <t>I secure the account</t>
+  </si>
+  <si>
+    <t>I check if the user is above 21</t>
+  </si>
+  <si>
+    <t>I get support/solution</t>
+  </si>
+  <si>
+    <t>frequent problems get solved faster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I can educate </t>
+  </si>
+  <si>
+    <t>I send money as gifts</t>
+  </si>
+  <si>
+    <t>I get money</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I make accessing accounts easier </t>
+  </si>
+  <si>
+    <t>I manage family account</t>
+  </si>
+  <si>
+    <t>I no longer use it</t>
+  </si>
+  <si>
+    <t>I allow the user to create it</t>
+  </si>
+  <si>
+    <t>I allow the user to manage it</t>
+  </si>
+  <si>
+    <t>I allow the user to delete it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I manage transfers </t>
+  </si>
+  <si>
+    <t>I return money to client</t>
+  </si>
+  <si>
+    <t>I support my business</t>
+  </si>
+  <si>
+    <t>I access my accounts easier</t>
+  </si>
+  <si>
+    <t>I reach a specific transaction easier</t>
+  </si>
+  <si>
+    <t>I solve their problem</t>
+  </si>
+  <si>
+    <t>I manage/pay my taxes</t>
+  </si>
+  <si>
+    <t>I reserve an appointment</t>
+  </si>
+  <si>
+    <t>I reach the nearst ATM/ branch easier</t>
+  </si>
+  <si>
+    <t>I skip waiting time</t>
+  </si>
+  <si>
+    <t>I view system status</t>
+  </si>
+  <si>
+    <t>I keep track of users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I detect suspiscious activity </t>
+  </si>
+  <si>
+    <t>I confirm it is me</t>
+  </si>
+  <si>
+    <t>I avoid hacking</t>
+  </si>
+  <si>
+    <t>I do regular transfers faster</t>
+  </si>
+  <si>
+    <t>I get better services</t>
+  </si>
+  <si>
+    <t>I verify it is my login</t>
+  </si>
+  <si>
+    <t>I access the main account faster</t>
+  </si>
+  <si>
+    <t>I send money to people</t>
+  </si>
+  <si>
+    <t>I can get/ update certain users data</t>
+  </si>
+  <si>
+    <t>I manage accounts with huge balance</t>
+  </si>
+  <si>
+    <t>I assign available employees to the customer</t>
+  </si>
+  <si>
+    <t>I raise funds to support my business</t>
+  </si>
+  <si>
+    <t>I pay by cheques</t>
+  </si>
+  <si>
+    <t>I pay with card</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I apply for university/travel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have money when I retire </t>
+  </si>
+  <si>
+    <t>I makeup for damages</t>
+  </si>
+  <si>
+    <t>I give the customer his money</t>
+  </si>
+  <si>
+    <t>I enjoy benefits/ no longer needs them</t>
+  </si>
+  <si>
+    <t>I provide goals/advice for users</t>
+  </si>
+  <si>
+    <t>I sign documents easier</t>
+  </si>
+  <si>
+    <t>I approve/ deny user payments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I approve/deny the payment </t>
+  </si>
+  <si>
+    <t>I allow the user to upgrade/downgrade</t>
+  </si>
+  <si>
+    <t>I can secure the account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I match bank policy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I allow customer to switch between them </t>
+  </si>
+  <si>
+    <t>Auditability</t>
+  </si>
+  <si>
+    <t>The system code should be clear and easy to maintain in case of updates and error handeling</t>
+  </si>
+  <si>
+    <t>It should be possible to install the system on many hardware and software platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should be compatible with other banking systems </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It should be possible to add additional features and functionality in the future </t>
+  </si>
+  <si>
+    <t>Every user activity and transactions should be tracked by the system's audit trail</t>
+  </si>
+  <si>
+    <t>it should have strong password system or two factor authentication</t>
+  </si>
+  <si>
+    <t>measure the number of concurrent users</t>
+  </si>
+  <si>
+    <t>measure the error rate</t>
+  </si>
+  <si>
+    <t>The use of servers or clouds and making copies of data</t>
+  </si>
+  <si>
+    <t>how many platforms could the system work properly</t>
+  </si>
+  <si>
+    <t>the number of third party integration supported by the system</t>
+  </si>
+  <si>
+    <t>measure browsers compatibilty and versions</t>
+  </si>
+  <si>
+    <t>the number of audit logs generated by the system</t>
+  </si>
+  <si>
+    <t>the number of APIs in the system</t>
   </si>
 </sst>
 </file>
@@ -2458,8 +2491,8 @@
   </sheetPr>
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F130" sqref="F130"/>
+    <sheetView topLeftCell="D1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2513,23 +2546,23 @@
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="11">
         <v>1</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H3" s="11"/>
     </row>
@@ -2537,9 +2570,7 @@
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="11">
-        <v>1</v>
-      </c>
+      <c r="B4" s="11"/>
       <c r="C4" s="11">
         <v>2</v>
       </c>
@@ -2550,19 +2581,19 @@
         <v>23</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B5" s="10">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="C5" s="11">
         <v>3</v>
@@ -2571,23 +2602,21 @@
         <v>22</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="G5" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B6" s="11"/>
       <c r="C6" s="11">
         <v>4</v>
       </c>
@@ -2595,23 +2624,21 @@
         <v>22</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>206</v>
+        <v>176</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B7" s="11">
-        <v>1</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B7" s="11"/>
       <c r="C7" s="11">
         <v>5</v>
       </c>
@@ -2619,23 +2646,21 @@
         <v>22</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>29</v>
+        <v>197</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="11">
-        <v>1</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="11">
         <v>6</v>
       </c>
@@ -2643,43 +2668,43 @@
         <v>22</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>30</v>
+        <v>207</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="B9" s="11">
+        <v>6</v>
       </c>
       <c r="C9" s="11">
         <v>7</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B10" s="11">
         <v>6</v>
@@ -2688,1052 +2713,1054 @@
         <v>8</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="11">
         <v>9</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>38</v>
-      </c>
       <c r="G11" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B12" s="11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="11">
         <v>10</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B13" s="11"/>
+        <v>169</v>
+      </c>
+      <c r="B13" s="11">
+        <v>102</v>
+      </c>
       <c r="C13" s="11">
         <v>11</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>42</v>
+        <v>210</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B14" s="11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="11">
         <v>12</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B15" s="11">
+        <v>102</v>
+      </c>
       <c r="C15" s="11">
         <v>13</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>211</v>
+        <v>178</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11">
         <v>14</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="11">
         <v>15</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11">
         <v>16</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>49</v>
+        <v>214</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11">
         <v>17</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>52</v>
+        <v>215</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B20" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" s="11">
         <v>18</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>53</v>
+        <v>216</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11">
         <v>19</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11">
         <v>20</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11">
         <v>21</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>212</v>
+        <v>179</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11">
         <v>22</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11">
         <v>23</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11">
         <v>24</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11">
         <v>25</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H27" s="11"/>
+        <v>175</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="11">
         <v>26</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11">
         <v>27</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11">
         <v>28</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="11">
         <v>29</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B32" s="11"/>
       <c r="C32" s="11">
         <v>30</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="11">
         <v>31</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B34" s="11"/>
       <c r="C34" s="11">
         <v>32</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11">
         <v>33</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11">
         <v>34</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H36" s="11"/>
+        <v>175</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="11">
         <v>35</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11">
         <v>36</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B39" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B39" s="11">
+        <v>38</v>
+      </c>
       <c r="C39" s="11">
         <v>37</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11">
         <v>38</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B41" s="11"/>
       <c r="C41" s="11">
         <v>39</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B42" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B42" s="11">
+        <v>39</v>
+      </c>
       <c r="C42" s="11">
         <v>40</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B43" s="11"/>
       <c r="C43" s="11">
         <v>41</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H43" s="11"/>
     </row>
     <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B44" s="11"/>
       <c r="C44" s="11">
         <v>42</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>232</v>
+        <v>183</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H44" s="11"/>
     </row>
     <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B45" s="11"/>
       <c r="C45" s="11">
         <v>43</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>233</v>
+        <v>184</v>
       </c>
       <c r="G45" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B46" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="B46" s="11">
+        <v>43</v>
+      </c>
       <c r="C46" s="11">
         <v>44</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="G46" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B47" s="11"/>
       <c r="C47" s="11">
         <v>45</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="11">
         <v>46</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>200</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B49" s="11"/>
       <c r="C49" s="11">
         <v>47</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B50" s="11">
-        <v>47</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B50" s="11"/>
       <c r="C50" s="11">
         <v>48</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B51" s="11">
-        <v>48</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B51" s="11"/>
       <c r="C51" s="11">
         <v>49</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H51" s="11"/>
     </row>
     <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B52" s="11">
-        <v>47</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B52" s="11"/>
       <c r="C52" s="11">
         <v>50</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H52" s="11"/>
     </row>
     <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B53" s="11">
-        <v>48</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B53" s="11"/>
       <c r="C53" s="11">
         <v>51</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B54" s="11">
-        <v>48</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B54" s="11"/>
       <c r="C54" s="11">
         <v>52</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="B55" s="11">
-        <v>48</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="B55" s="11"/>
       <c r="C55" s="11">
         <v>53</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B56" s="11"/>
       <c r="C56" s="11">
         <v>54</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B57" s="11">
         <v>48</v>
@@ -3742,200 +3769,200 @@
         <v>55</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B58" s="11">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C58" s="11">
         <v>56</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11">
         <v>57</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H59" s="11"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11">
         <v>58</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H60" s="11"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11">
         <v>59</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11">
         <v>60</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B63" s="11"/>
       <c r="C63" s="11">
         <v>61</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11">
         <v>62</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B65" s="11"/>
       <c r="C65" s="11">
         <v>63</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B66" s="11">
         <v>63</v>
@@ -3944,1391 +3971,1365 @@
         <v>64</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>249</v>
+        <v>186</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>250</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B67" s="11">
-        <v>63</v>
-      </c>
-      <c r="C67" s="11">
-        <v>65</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="10"/>
       <c r="E67" s="19"/>
       <c r="F67" s="11"/>
-      <c r="G67" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="G67" s="12"/>
       <c r="H67" s="11"/>
     </row>
     <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B68" s="11">
         <v>63</v>
       </c>
       <c r="C68" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="F68" s="11" t="s">
         <v>251</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B69" s="11">
         <v>63</v>
       </c>
       <c r="C69" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B70" s="11">
         <v>63</v>
       </c>
       <c r="C70" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D70" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E70" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="F70" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="E70" s="19" t="s">
-        <v>252</v>
-      </c>
-      <c r="F70" s="11" t="s">
-        <v>258</v>
-      </c>
       <c r="G70" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B71" s="11">
-        <v>63</v>
-      </c>
-      <c r="C71" s="11">
-        <v>69</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>70</v>
-      </c>
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="10"/>
       <c r="E71" s="19"/>
       <c r="F71" s="11"/>
-      <c r="G71" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="G71" s="12"/>
       <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B72" s="11">
         <v>63</v>
       </c>
       <c r="C72" s="11">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="B73" s="11">
+        <v>93</v>
+      </c>
       <c r="C73" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D73" s="20" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H73" s="11"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B74" s="11"/>
+        <v>169</v>
+      </c>
+      <c r="B74" s="11">
+        <v>14</v>
+      </c>
       <c r="C74" s="11">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D74" s="20" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="F74" s="19" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B75" s="11"/>
       <c r="C75" s="11">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D75" s="20" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H75" s="11"/>
     </row>
     <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D76" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H76" s="11"/>
     </row>
     <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D77" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B78" s="11">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B78" s="11"/>
       <c r="C78" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D78" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B79" s="11">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B79" s="11"/>
       <c r="C79" s="11">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D79" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B80" s="11">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B80" s="11"/>
       <c r="C80" s="11">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D80" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D81" s="20" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B82" s="11"/>
       <c r="C82" s="11">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D82" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B83" s="11"/>
       <c r="C83" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D83" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H83" s="11"/>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D84" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="F84" s="19" t="s">
-        <v>121</v>
+        <v>262</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H84" s="11"/>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="B85" s="11"/>
+        <v>172</v>
+      </c>
+      <c r="B85" s="11">
+        <v>80</v>
+      </c>
       <c r="C85" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D85" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="F85" s="19" t="s">
-        <v>123</v>
+        <v>264</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H85" s="11"/>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B86" s="11"/>
       <c r="C86" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D86" s="20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="F86" s="19" t="s">
-        <v>140</v>
+        <v>265</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H86" s="11"/>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B87" s="11">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C87" s="11">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D87" s="20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H87" s="11"/>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B88" s="11"/>
       <c r="C88" s="11">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D88" s="20" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H88" s="11"/>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B89" s="11"/>
       <c r="C89" s="11">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D89" s="20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>266</v>
+        <v>189</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H89" s="11"/>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B90" s="11"/>
       <c r="C90" s="11">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D90" s="20" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H90" s="11"/>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B91" s="11"/>
       <c r="C91" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D91" s="20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F91" s="19" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H91" s="11"/>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B92" s="11"/>
       <c r="C92" s="11">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D92" s="20" t="s">
         <v>22</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F92" s="19" t="s">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H92" s="11"/>
     </row>
     <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B93" s="11"/>
       <c r="C93" s="11">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D93" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H93" s="11"/>
     </row>
     <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D94" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="F94" s="19" t="s">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H94" s="11"/>
     </row>
     <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B95" s="11"/>
       <c r="C95" s="11">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D95" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F95" s="22" t="s">
-        <v>156</v>
+        <v>273</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H95" s="11"/>
     </row>
     <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B96" s="11"/>
       <c r="C96" s="11">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D96" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="F96" s="11" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B97" s="11"/>
       <c r="C97" s="11">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D97" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="F97" s="11" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H97" s="11"/>
     </row>
     <row r="98" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B98" s="11"/>
       <c r="C98" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D98" s="20" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H98" s="11"/>
     </row>
     <row r="99" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B99" s="11"/>
       <c r="C99" s="11">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D99" s="20" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="F99" s="11" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H99" s="11"/>
     </row>
     <row r="100" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D100" s="20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H100" s="11"/>
     </row>
     <row r="101" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D101" s="20" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="F101" s="11" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H101" s="11"/>
     </row>
     <row r="102" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="11">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="F102" s="19" t="s">
-        <v>166</v>
+        <v>278</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H102" s="11"/>
     </row>
     <row r="103" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="11">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>273</v>
+        <v>190</v>
       </c>
       <c r="F103" s="11" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H103" s="11"/>
     </row>
     <row r="104" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="B104" s="11"/>
+        <v>169</v>
+      </c>
+      <c r="B104" s="11">
+        <v>102</v>
+      </c>
       <c r="C104" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="F104" s="11" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H104" s="11"/>
     </row>
     <row r="105" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D105" s="10" t="s">
         <v>22</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="F105" s="11" t="s">
         <v>251</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H105" s="11"/>
     </row>
     <row r="106" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="11">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E106" s="11" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H106" s="11"/>
     </row>
     <row r="107" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E107" s="11" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H107" s="11"/>
     </row>
     <row r="108" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G108" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H108" s="11"/>
     </row>
     <row r="109" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="11">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="F109" s="11" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G109" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H109" s="11"/>
     </row>
     <row r="110" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B110" s="11"/>
       <c r="C110" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="F110" s="11" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G110" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H110" s="11"/>
     </row>
     <row r="111" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B111" s="11"/>
       <c r="C111" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>281</v>
+        <v>193</v>
       </c>
       <c r="F111" s="11" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G111" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H111" s="11"/>
     </row>
     <row r="112" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B112" s="11"/>
       <c r="C112" s="11">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>283</v>
+        <v>194</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>284</v>
       </c>
       <c r="G112" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H112" s="11"/>
     </row>
     <row r="113" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>284</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H113" s="11"/>
     </row>
     <row r="114" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="11">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="F114" s="11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G114" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H114" s="11"/>
     </row>
     <row r="115" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="11">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G115" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H115" s="11"/>
     </row>
     <row r="116" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="B116" s="11"/>
       <c r="C116" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G116" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H116" s="11"/>
     </row>
     <row r="117" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="A117" s="11"/>
       <c r="B117" s="11"/>
-      <c r="C117" s="11">
-        <v>115</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>82</v>
-      </c>
+      <c r="C117" s="11"/>
+      <c r="D117" s="10"/>
       <c r="E117" s="11"/>
       <c r="F117" s="11"/>
-      <c r="G117" s="12" t="s">
-        <v>205</v>
-      </c>
+      <c r="G117" s="12"/>
       <c r="H117" s="11"/>
     </row>
     <row r="118" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F118" s="11" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G118" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H118" s="11"/>
     </row>
     <row r="119" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B119" s="11"/>
       <c r="C119" s="11">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="F119" s="11" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G119" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="H119" s="11"/>
     </row>
     <row r="120" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="23" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C120" s="23">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D120" s="24" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="E120" s="23" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F120" s="23" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="G120" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="23" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C121" s="23">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D121" s="24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E121" s="23" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G121" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="23" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C122" s="23">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D122" s="24" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E122" s="23" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="F122" s="23" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="23" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C123" s="23">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D123" s="24" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E123" s="23" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="F123" s="23" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="23" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C124" s="23">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D124" s="24" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E124" s="23" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="F124" s="23" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="23" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C125" s="23">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D125" s="24" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E125" s="23" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="F125" s="23" t="s">
-        <v>293</v>
+        <v>205</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="23" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C126" s="23">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D126" s="24" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E126" s="23" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="23" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C127" s="23">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D127" s="24" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E127" s="23" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>294</v>
+        <v>203</v>
       </c>
       <c r="G127" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128" s="23">
+        <v>124</v>
+      </c>
+      <c r="D128" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E128" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F128" t="s">
         <v>202</v>
       </c>
-      <c r="C128" s="23">
-        <v>126</v>
-      </c>
-      <c r="D128" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E128" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F128" t="s">
-        <v>296</v>
-      </c>
       <c r="G128" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="23" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="C129" s="23">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D129" s="24" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E129" s="23" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>297</v>
+        <v>201</v>
       </c>
       <c r="G129" s="12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -5353,8 +5354,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5420,7 +5421,9 @@
       <c r="D2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F2" s="11"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -5448,13 +5451,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+        <v>101</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F3" s="11"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -5482,13 +5489,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+        <v>103</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -5516,15 +5527,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="E5" s="12"/>
+        <v>110</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -5552,15 +5565,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F6" s="11"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -5588,13 +5603,17 @@
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+        <v>116</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F7" s="11"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -5622,15 +5641,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="12"/>
+        <v>119</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -5658,15 +5679,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>121</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -5694,15 +5717,17 @@
         <v>9</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="E10" s="12"/>
+        <v>300</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -5730,13 +5755,17 @@
         <v>10</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
+        <v>296</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -5764,13 +5793,17 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+        <v>297</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -5798,13 +5831,17 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>167</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -5832,13 +5869,17 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+        <v>298</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -5866,13 +5907,17 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>196</v>
+        <v>294</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>299</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>175</v>
+      </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -12417,7 +12462,7 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E2:E15">
       <formula1>"Mobile App,Online Banking Website,Both"</formula1>
     </dataValidation>
   </dataValidations>
